--- a/vtac_spain/DISTINCT_FIELDS_EXCEL.xlsx
+++ b/vtac_spain/DISTINCT_FIELDS_EXCEL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,12 +478,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>x_tipo_casquillo</t>
+          <t>x_corriente</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tipo casquillo</t>
+          <t>Corriente</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -542,12 +542,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>x_longitud_del_tubo</t>
+          <t>x_tiempo_de_carga</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Longitud del tubo</t>
+          <t>Tiempo de carga</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -574,12 +574,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>x_material</t>
+          <t>x_certificados</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Material</t>
+          <t>Certificados</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -606,12 +606,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>x_regulable</t>
+          <t>x_tipo_de_sensor</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Regulable</t>
+          <t>Tipo de sensor</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -638,12 +638,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>x_modo_de_carga_corriente_de_carga</t>
+          <t>x_deteccion_a_distancia</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Modo de carga corriente de carga</t>
+          <t>Detección a distancia</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -670,12 +670,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>x_rotacion</t>
+          <t>x_eficacia_luminosa_lm_w</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rotación</t>
+          <t>Eficacia luminosa (lm/W)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -702,12 +702,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>x_voltaje_de_entrada</t>
+          <t>x_longitud_del_tubo</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Voltaje de entrada</t>
+          <t>Longitud del tubo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -734,12 +734,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>x_tiempo_de_inicio_al_100_encendido</t>
+          <t>x_vida_util</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Tiempo de inicio al 100% encendido</t>
+          <t>Vida útil</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -766,12 +766,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>x_potencia_equivalente</t>
+          <t>x_lumenes_utiles_lm</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Potencia equivalente</t>
+          <t>Lúmenes útiles (lm)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -798,12 +798,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>x_potencia_m</t>
+          <t>x_deteccion_por_movimiento</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Potencia/m</t>
+          <t>Detección por movimiento</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -830,12 +830,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>x_marca</t>
+          <t>x_temperaturas_de_trabajo</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Marca</t>
+          <t>Temperaturas de trabajo</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -862,12 +862,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>x_rango_de_deteccion</t>
+          <t>x_proteccion_ip</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Rango de detección</t>
+          <t>Protección IP</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -894,12 +894,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>x_proteccion_ip</t>
+          <t>x_cantidad_del_led</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Protección IP</t>
+          <t>Cantidad del LED</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -926,12 +926,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>x_unidades_por_embalaje</t>
+          <t>x_potencia</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Unidades por embalaje</t>
+          <t>Potencia</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -958,12 +958,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>x_deteccion_por_movimiento</t>
+          <t>x_diametro</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Detección por movimiento</t>
+          <t>Diámetro</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -990,12 +990,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>x_url</t>
+          <t>x_descripcion</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>descripcion</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1022,12 +1022,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>x_diametro</t>
+          <t>x_regulable</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Diámetro</t>
+          <t>Regulable</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1054,12 +1054,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>x_ciclos_de_encendido___apagado</t>
+          <t>x_casquillo</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ciclos de encendido / apagado</t>
+          <t>Casquillo</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1086,12 +1086,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>x_clase_de_eficiencia_energetica</t>
+          <t>x_modo_de_carga_corriente_de_carga</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Clase de eficiencia energética</t>
+          <t>Modo de carga corriente de carga</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1118,12 +1118,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>x_factor_del_mantenimiento_de_los_lumenes_al_final_de_la_vida</t>
+          <t>x_anchura</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Factor del mantenimiento de los lúmenes al final de la vida nominal</t>
+          <t>Anchura</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1150,12 +1150,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>x_lumenes_utiles_lm</t>
+          <t>x_intensidad_luminosa_cd</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Lúmenes útiles (lm)</t>
+          <t>Intensidad luminosa, Cd</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1182,12 +1182,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>x_montar</t>
+          <t>x_grado_de_proteccion_ik</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Montar</t>
+          <t>Grado de protección IK</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1214,12 +1214,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>x_dimensiones_de_montaje</t>
+          <t>x_flujo_luminoso_lm</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Dimensiones de montaje</t>
+          <t>Flujo luminoso (lm)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1246,12 +1246,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>x_temperaturas_de_trabajo</t>
+          <t>x_garantia</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Temperaturas de trabajo</t>
+          <t>Garantía</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1278,12 +1278,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>x_factor_de_potencia</t>
+          <t>x_puntos_de_corte</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Factor de potencia</t>
+          <t>Puntos de corte</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1310,12 +1310,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>x_potencia</t>
+          <t>x_longitud_del_cable</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Potencia</t>
+          <t>Longitud del cable</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1342,12 +1342,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>x_dimensiones</t>
+          <t>x_fecha_de_lanzamiento</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dimensiones</t>
+          <t>Fecha de lanzamiento</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1374,12 +1374,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>x_estabilidad_del_color</t>
+          <t>x_tamano_polo</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Estabilidad del color</t>
+          <t>Tamaño Polo</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1406,12 +1406,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>x_tipo_led</t>
+          <t>x_unidades_por_embalaje</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Tipo LED</t>
+          <t>Unidades por embalaje</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1438,12 +1438,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>x_garantia</t>
+          <t>x_frecuencia</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Garantía</t>
+          <t>Frecuencia</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1470,12 +1470,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>x_tono_de_luz</t>
+          <t>x_url</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Tono de luz</t>
+          <t>url</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1502,12 +1502,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>x_vida_util</t>
+          <t>x_luz_ambiental</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Vida útil</t>
+          <t>Luz ambiental</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1534,12 +1534,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>x_longitud_del_cable</t>
+          <t>x_salida</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Longitud del cable</t>
+          <t>Salida</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1566,12 +1566,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>x_deteccion_a_distancia</t>
+          <t>x_tipo_led</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Detección a distancia</t>
+          <t>Tipo LED</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1598,12 +1598,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>x_grado_de_proteccion_ik</t>
+          <t>x_angulo_de_apertura</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Grado de protección IK</t>
+          <t>Ángulo de apertura</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1630,12 +1630,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>x_angulo_de_apertura</t>
+          <t>x_rango_de_deteccion</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Ángulo de apertura</t>
+          <t>Rango de detección</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1662,12 +1662,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>x_tipo_de_sensor</t>
+          <t>x_forma</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Tipo de sensor</t>
+          <t>Forma</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1694,12 +1694,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>x_descripcion</t>
+          <t>x_tipo</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>descripcion</t>
+          <t>Tipo</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1726,12 +1726,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>x_eficacia_luminosa_lm_w</t>
+          <t>x_altura</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Eficacia luminosa (lm/W)</t>
+          <t>Altura</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1758,12 +1758,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>x_ampolla_exterior</t>
+          <t>x_tipo_casquillo</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Ampolla exterior</t>
+          <t>Tipo casquillo</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1790,12 +1790,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>x_flujo_luminoso_m</t>
+          <t>x_estabilidad_del_color</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Flujo luminoso/m</t>
+          <t>Estabilidad del color</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1822,12 +1822,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>x_carga_nominal</t>
+          <t>x_modo_de_emergencia_corriente_de_descarga</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Carga nominal</t>
+          <t>Modo de emergencia corriente de descarga</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1854,12 +1854,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>x_modo_de_emergencia_corriente_de_descarga</t>
+          <t>x_factor_de_potencia</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Modo de emergencia corriente de descarga</t>
+          <t>Factor de potencia</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1886,12 +1886,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>x_lumenes_por_led</t>
+          <t>x_potencia_m</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Lúmenes por LED</t>
+          <t>Potencia/m</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1918,12 +1918,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>x_codigo_de_familia</t>
+          <t>x_ciclos_de_encendido___apagado</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Código de familia</t>
+          <t>Ciclos de encendido / apagado</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1950,12 +1950,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>x_unidades_por_caja</t>
+          <t>x_voltaje_de_entrada</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Unidades por caja</t>
+          <t>Voltaje de entrada</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1982,12 +1982,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>x_sku</t>
+          <t>x_clase_de_eficiencia_energetica</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SKU</t>
+          <t>Clase de eficiencia energética</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2014,12 +2014,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>x_salida</t>
+          <t>x_tiempo_de_trabajo</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Salida</t>
+          <t>Tiempo de trabajo</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2046,12 +2046,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>x_tiempo_de_carga</t>
+          <t>x_flujo_luminoso_m</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Tiempo de carga</t>
+          <t>Flujo luminoso/m</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2078,12 +2078,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>x_grado_de_proteccion_ip</t>
+          <t>x_factor_del_mantenimiento_de_los_lumenes_al_final_de_la_vida</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Grado de protección IP</t>
+          <t>Factor del mantenimiento de los lúmenes al final de la vida nominal</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2110,12 +2110,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>x_temperatura_de_color</t>
+          <t>x_dimensiones_de_montaje</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Temperatura de color</t>
+          <t>Dimensiones de montaje</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2142,12 +2142,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>x_cantidad_del_led</t>
+          <t>x_rotacion</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Cantidad del LED</t>
+          <t>Rotación</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2174,12 +2174,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>x_puntos_de_corte</t>
+          <t>x_temperatura_de_color</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Puntos de corte</t>
+          <t>Temperatura de color</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2206,12 +2206,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>x_casquillo</t>
+          <t>x_tiempo_de_retardo</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Casquillo</t>
+          <t>Tiempo de retardo</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2238,12 +2238,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>x_fpc_ancho_mm</t>
+          <t>x_sensor</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>FPC Ancho MM</t>
+          <t>Sensor</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2270,12 +2270,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>x_icons</t>
+          <t>x_tiempo_de_inicio_al_100_encendido</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>icons</t>
+          <t>Tiempo de inicio al 100% encendido</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2334,12 +2334,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>x_longitud</t>
+          <t>x_tono_de_luz</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Longitud</t>
+          <t>Tono de luz</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2366,12 +2366,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>x_tipo</t>
+          <t>x_sku</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Tipo</t>
+          <t>SKU</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2398,12 +2398,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>x_frecuencia</t>
+          <t>x_ampolla_exterior</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Frecuencia</t>
+          <t>Ampolla exterior</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2430,12 +2430,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>x_tension</t>
+          <t>x_marca</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Tensión</t>
+          <t>Marca</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2462,12 +2462,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>x_intensidad_luminosa_cd</t>
+          <t>x_longitud</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Intensidad luminosa, Cd</t>
+          <t>Longitud</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2494,12 +2494,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>x_ean</t>
+          <t>x_carga_nominal</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>EAN</t>
+          <t>Carga nominal</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2526,12 +2526,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>x_fecha_de_lanzamiento</t>
+          <t>x_tension</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Fecha de lanzamiento</t>
+          <t>Tensión</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2558,12 +2558,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>x_tiempo_de_trabajo</t>
+          <t>x_cri</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Tiempo de trabajo</t>
+          <t>CRI</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2590,12 +2590,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>x_sensor</t>
+          <t>x_ean</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Sensor</t>
+          <t>EAN</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2622,12 +2622,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>x_corriente</t>
+          <t>x_jacket_dia</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Corriente</t>
+          <t>Jacket Dia</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2654,12 +2654,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>x_certificados</t>
+          <t>x_montar</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Certificados</t>
+          <t>Montar</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2686,12 +2686,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>x_tamano_polo</t>
+          <t>x_fpc_ancho_mm</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Tamaño Polo</t>
+          <t>FPC Ancho MM</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2718,12 +2718,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>x_altura</t>
+          <t>x_material</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Altura</t>
+          <t>Material</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2750,12 +2750,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>x_anchura</t>
+          <t>x_dimensiones</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Anchura</t>
+          <t>Dimensiones</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2782,12 +2782,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>x_luz_ambiental</t>
+          <t>x_lumenes_por_led</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Luz ambiental</t>
+          <t>Lúmenes por LED</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2814,12 +2814,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>x_tiempo_de_retardo</t>
+          <t>x_grado_de_proteccion_ip</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Tiempo de retardo</t>
+          <t>Grado de protección IP</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2846,12 +2846,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>x_jacket_dia</t>
+          <t>x_codigo_de_familia</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Jacket Dia</t>
+          <t>Código de familia</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2878,12 +2878,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>x_forma</t>
+          <t>x_unidades_por_caja</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Forma</t>
+          <t>Unidades por caja</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2910,12 +2910,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>x_flujo_luminoso_lm</t>
+          <t>x_potencia_equivalente</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Flujo luminoso (lm)</t>
+          <t>Potencia equivalente</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2938,38 +2938,6 @@
         <v>0</v>
       </c>
       <c r="H78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>x_cri</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>CRI</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>product.template</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>texto</t>
-        </is>
-      </c>
-      <c r="E79" t="b">
-        <v>1</v>
-      </c>
-      <c r="F79" t="b">
-        <v>1</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/vtac_spain/DISTINCT_FIELDS_EXCEL.xlsx
+++ b/vtac_spain/DISTINCT_FIELDS_EXCEL.xlsx
@@ -478,12 +478,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>x_tipo_casquillo</t>
+          <t>x_url</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tipo casquillo</t>
+          <t>url</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -510,12 +510,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>x_capacidad_de_la_bateria</t>
+          <t>x_deteccion_a_distancia</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Capacidad de la batería</t>
+          <t>Detección a distancia</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -542,12 +542,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>x_longitud_del_tubo</t>
+          <t>x_grado_de_proteccion_ik</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Longitud del tubo</t>
+          <t>Grado de protección IK</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -574,12 +574,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>x_material</t>
+          <t>x_fecha_de_lanzamiento</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Material</t>
+          <t>Fecha de lanzamiento</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -606,12 +606,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>x_regulable</t>
+          <t>x_icons</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Regulable</t>
+          <t>icons</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -638,12 +638,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>x_modo_de_carga_corriente_de_carga</t>
+          <t>x_tipo_de_sensor</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Modo de carga corriente de carga</t>
+          <t>Tipo de sensor</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -670,12 +670,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>x_rotacion</t>
+          <t>x_certificados</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rotación</t>
+          <t>Certificados</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -702,12 +702,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>x_voltaje_de_entrada</t>
+          <t>x_fpc_ancho_mm</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Voltaje de entrada</t>
+          <t>FPC Ancho MM</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -734,12 +734,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>x_tiempo_de_inicio_al_100_encendido</t>
+          <t>x_diametro</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Tiempo de inicio al 100% encendido</t>
+          <t>Diámetro</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -766,12 +766,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>x_potencia_equivalente</t>
+          <t>x_factor_de_potencia</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Potencia equivalente</t>
+          <t>Factor de potencia</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -798,12 +798,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>x_potencia_m</t>
+          <t>x_flujo_luminoso_m</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Potencia/m</t>
+          <t>Flujo luminoso/m</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -830,12 +830,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>x_marca</t>
+          <t>x_tipo_led</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Marca</t>
+          <t>Tipo LED</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -862,12 +862,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>x_rango_de_deteccion</t>
+          <t>x_anchura</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Rango de detección</t>
+          <t>Anchura</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -926,12 +926,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>x_unidades_por_embalaje</t>
+          <t>x_flujo_luminoso_lm</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Unidades por embalaje</t>
+          <t>Flujo luminoso (lm)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -958,12 +958,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>x_deteccion_por_movimiento</t>
+          <t>x_tipo_casquillo</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Detección por movimiento</t>
+          <t>Tipo casquillo</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -990,12 +990,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>x_url</t>
+          <t>x_potencia_m</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>Potencia/m</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1022,12 +1022,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>x_diametro</t>
+          <t>x_estabilidad_del_color</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Diámetro</t>
+          <t>Estabilidad del color</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1054,12 +1054,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>x_ciclos_de_encendido___apagado</t>
+          <t>x_carga_nominal</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ciclos de encendido / apagado</t>
+          <t>Carga nominal</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1086,12 +1086,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>x_clase_de_eficiencia_energetica</t>
+          <t>x_temperaturas_de_trabajo</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Clase de eficiencia energética</t>
+          <t>Temperaturas de trabajo</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1118,12 +1118,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>x_factor_del_mantenimiento_de_los_lumenes_al_final_de_la_vida</t>
+          <t>x_longitud</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Factor del mantenimiento de los lúmenes al final de la vida nominal</t>
+          <t>Longitud</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1150,12 +1150,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>x_lumenes_utiles_lm</t>
+          <t>x_factor_del_mantenimiento_de_los_lumenes_al_final_de_la_vida</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Lúmenes útiles (lm)</t>
+          <t>Factor del mantenimiento de los lúmenes al final de la vida nominal</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1182,12 +1182,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>x_montar</t>
+          <t>x_marca</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Montar</t>
+          <t>Marca</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1214,12 +1214,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>x_dimensiones_de_montaje</t>
+          <t>x_sensor</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Dimensiones de montaje</t>
+          <t>Sensor</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1246,12 +1246,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>x_temperaturas_de_trabajo</t>
+          <t>x_forma</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Temperaturas de trabajo</t>
+          <t>Forma</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1278,12 +1278,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>x_factor_de_potencia</t>
+          <t>x_tiempo_de_retardo</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Factor de potencia</t>
+          <t>Tiempo de retardo</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1310,12 +1310,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>x_potencia</t>
+          <t>x_lumenes_por_led</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Potencia</t>
+          <t>Lúmenes por LED</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1342,12 +1342,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>x_dimensiones</t>
+          <t>x_sku</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dimensiones</t>
+          <t>SKU</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1374,12 +1374,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>x_estabilidad_del_color</t>
+          <t>x_lumenes_utiles_lm</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Estabilidad del color</t>
+          <t>Lúmenes útiles (lm)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1406,12 +1406,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>x_tipo_led</t>
+          <t>x_tipo</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Tipo LED</t>
+          <t>Tipo</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1438,12 +1438,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>x_garantia</t>
+          <t>x_vida_util</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Garantía</t>
+          <t>Vida útil</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1470,12 +1470,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>x_tono_de_luz</t>
+          <t>x_grado_de_proteccion_ip</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Tono de luz</t>
+          <t>Grado de protección IP</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1502,12 +1502,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>x_vida_util</t>
+          <t>x_garantia</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Vida útil</t>
+          <t>Garantía</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1534,12 +1534,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>x_longitud_del_cable</t>
+          <t>x_tiempo_de_trabajo</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Longitud del cable</t>
+          <t>Tiempo de trabajo</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1566,12 +1566,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>x_deteccion_a_distancia</t>
+          <t>x_tiempo_de_carga</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Detección a distancia</t>
+          <t>Tiempo de carga</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1598,12 +1598,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>x_grado_de_proteccion_ik</t>
+          <t>x_descripcion</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Grado de protección IK</t>
+          <t>descripcion</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1630,12 +1630,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>x_angulo_de_apertura</t>
+          <t>x_tono_de_luz</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Ángulo de apertura</t>
+          <t>Tono de luz</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1662,12 +1662,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>x_tipo_de_sensor</t>
+          <t>x_cantidad_del_led</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Tipo de sensor</t>
+          <t>Cantidad del LED</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1694,12 +1694,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>x_descripcion</t>
+          <t>x_voltaje_de_entrada</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>descripcion</t>
+          <t>Voltaje de entrada</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1726,12 +1726,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>x_eficacia_luminosa_lm_w</t>
+          <t>x_ciclos_de_encendido__apagado</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Eficacia luminosa (lm/W)</t>
+          <t>Ciclos de encendido / apagado</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1758,12 +1758,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>x_ampolla_exterior</t>
+          <t>x_luz_ambiental</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Ampolla exterior</t>
+          <t>Luz ambiental</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1790,12 +1790,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>x_flujo_luminoso_m</t>
+          <t>x_rotacion</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Flujo luminoso/m</t>
+          <t>Rotación</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1822,12 +1822,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>x_carga_nominal</t>
+          <t>x_tiempo_de_inicio_al_100_encendido</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Carga nominal</t>
+          <t>Tiempo de inicio al 100% encendido</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1854,12 +1854,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>x_modo_de_emergencia_corriente_de_descarga</t>
+          <t>x_frecuencia</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Modo de emergencia corriente de descarga</t>
+          <t>Frecuencia</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1886,12 +1886,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>x_lumenes_por_led</t>
+          <t>x_temperatura_de_color</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Lúmenes por LED</t>
+          <t>Temperatura de color</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1918,12 +1918,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>x_codigo_de_familia</t>
+          <t>x_cri</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Código de familia</t>
+          <t>CRI</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1950,12 +1950,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>x_unidades_por_caja</t>
+          <t>x_codigo_de_familia</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Unidades por caja</t>
+          <t>Código de familia</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1982,12 +1982,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>x_sku</t>
+          <t>x_ean</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SKU</t>
+          <t>EAN</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2014,12 +2014,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>x_salida</t>
+          <t>x_clase_de_eficiencia_energetica</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Salida</t>
+          <t>Clase de eficiencia energética</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2046,12 +2046,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>x_tiempo_de_carga</t>
+          <t>x_unidades_por_embalaje</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Tiempo de carga</t>
+          <t>Unidades por embalaje</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2078,12 +2078,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>x_grado_de_proteccion_ip</t>
+          <t>x_modo_de_carga_corriente_de_carga</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Grado de protección IP</t>
+          <t>Modo de carga corriente de carga</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2110,12 +2110,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>x_temperatura_de_color</t>
+          <t>x_longitud_del_tubo</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Temperatura de color</t>
+          <t>Longitud del tubo</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2142,12 +2142,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>x_cantidad_del_led</t>
+          <t>x_corriente</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Cantidad del LED</t>
+          <t>Corriente</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2174,12 +2174,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>x_puntos_de_corte</t>
+          <t>x_tension</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Puntos de corte</t>
+          <t>Tensión</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2206,12 +2206,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>x_casquillo</t>
+          <t>x_montar</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Casquillo</t>
+          <t>Montar</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2238,12 +2238,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>x_fpc_ancho_mm</t>
+          <t>x_rango_de_deteccion</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>FPC Ancho MM</t>
+          <t>Rango de detección</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2270,12 +2270,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>x_icons</t>
+          <t>x_longitud_del_cable</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>icons</t>
+          <t>Longitud del cable</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2302,12 +2302,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>x_color_del_cuerpo</t>
+          <t>x_angulo_de_apertura</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Color del cuerpo</t>
+          <t>Ángulo de apertura</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2334,12 +2334,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>x_longitud</t>
+          <t>x_dimensiones_de_montaje</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Longitud</t>
+          <t>Dimensiones de montaje</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2366,12 +2366,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>x_tipo</t>
+          <t>x_modo_de_emergencia_corriente_de_descarga</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Tipo</t>
+          <t>Modo de emergencia corriente de descarga</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2398,12 +2398,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>x_frecuencia</t>
+          <t>x_ampolla_exterior</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Frecuencia</t>
+          <t>Ampolla exterior</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2430,12 +2430,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>x_tension</t>
+          <t>x_potencia</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Tensión</t>
+          <t>Potencia</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2462,12 +2462,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>x_intensidad_luminosa_cd</t>
+          <t>x_unidades_por_caja</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Intensidad luminosa, Cd</t>
+          <t>Unidades por caja</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2494,12 +2494,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>x_ean</t>
+          <t>x_eficacia_luminosa_lm_w</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>EAN</t>
+          <t>Eficacia luminosa (lm/W)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2526,12 +2526,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>x_fecha_de_lanzamiento</t>
+          <t>x_color_del_cuerpo</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Fecha de lanzamiento</t>
+          <t>Color del cuerpo</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2558,12 +2558,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>x_tiempo_de_trabajo</t>
+          <t>x_tamano_polo</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Tiempo de trabajo</t>
+          <t>Tamaño Polo</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2590,12 +2590,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>x_sensor</t>
+          <t>x_potencia_equivalente</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Sensor</t>
+          <t>Potencia equivalente</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2622,12 +2622,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>x_corriente</t>
+          <t>x_intensidad_luminosa_cd</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Corriente</t>
+          <t>Intensidad luminosa, Cd</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2654,12 +2654,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>x_certificados</t>
+          <t>x_puntos_de_corte</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Certificados</t>
+          <t>Puntos de corte</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2686,12 +2686,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>x_tamano_polo</t>
+          <t>x_casquillo</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Tamaño Polo</t>
+          <t>Casquillo</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2718,12 +2718,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>x_altura</t>
+          <t>x_regulable</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Altura</t>
+          <t>Regulable</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2750,12 +2750,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>x_anchura</t>
+          <t>x_material</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Anchura</t>
+          <t>Material</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2782,12 +2782,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>x_luz_ambiental</t>
+          <t>x_deteccion_por_movimiento</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Luz ambiental</t>
+          <t>Detección por movimiento</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2814,12 +2814,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>x_tiempo_de_retardo</t>
+          <t>x_jacket_dia</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Tiempo de retardo</t>
+          <t>Jacket Dia</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2846,12 +2846,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>x_jacket_dia</t>
+          <t>x_capacidad_de_la_bateria</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Jacket Dia</t>
+          <t>Capacidad de la batería</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2878,12 +2878,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>x_forma</t>
+          <t>x_dimensiones</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Forma</t>
+          <t>Dimensiones</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2910,12 +2910,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>x_flujo_luminoso_lm</t>
+          <t>x_salida</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Flujo luminoso (lm)</t>
+          <t>Salida</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2942,12 +2942,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>x_cri</t>
+          <t>x_altura</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>CRI</t>
+          <t>Altura</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">

--- a/vtac_spain/DISTINCT_FIELDS_EXCEL.xlsx
+++ b/vtac_spain/DISTINCT_FIELDS_EXCEL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,12 +478,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>x_corriente</t>
+          <t>x_url</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Corriente</t>
+          <t>url</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -510,12 +510,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>x_capacidad_de_la_bateria</t>
+          <t>x_deteccion_a_distancia</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Capacidad de la batería</t>
+          <t>Detección a distancia</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -542,12 +542,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>x_tiempo_de_carga</t>
+          <t>x_grado_de_proteccion_ik</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tiempo de carga</t>
+          <t>Grado de protección IK</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -574,12 +574,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>x_certificados</t>
+          <t>x_fecha_de_lanzamiento</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Certificados</t>
+          <t>Fecha de lanzamiento</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -606,12 +606,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>x_tipo_de_sensor</t>
+          <t>x_icons</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tipo de sensor</t>
+          <t>icons</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -638,12 +638,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>x_deteccion_a_distancia</t>
+          <t>x_tipo_de_sensor</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Detección a distancia</t>
+          <t>Tipo de sensor</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -670,12 +670,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>x_eficacia_luminosa_lm_w</t>
+          <t>x_certificados</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Eficacia luminosa (lm/W)</t>
+          <t>Certificados</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -702,12 +702,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>x_longitud_del_tubo</t>
+          <t>x_fpc_ancho_mm</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Longitud del tubo</t>
+          <t>FPC Ancho MM</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -734,12 +734,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>x_vida_util</t>
+          <t>x_diametro</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Vida útil</t>
+          <t>Diámetro</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -766,12 +766,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>x_lumenes_utiles_lm</t>
+          <t>x_factor_de_potencia</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Lúmenes útiles (lm)</t>
+          <t>Factor de potencia</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -798,12 +798,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>x_deteccion_por_movimiento</t>
+          <t>x_flujo_luminoso_m</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Detección por movimiento</t>
+          <t>Flujo luminoso/m</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -830,12 +830,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>x_temperaturas_de_trabajo</t>
+          <t>x_tipo_led</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Temperaturas de trabajo</t>
+          <t>Tipo LED</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -862,12 +862,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>x_proteccion_ip</t>
+          <t>x_anchura</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Protección IP</t>
+          <t>Anchura</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -894,12 +894,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>x_cantidad_del_led</t>
+          <t>x_proteccion_ip</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Cantidad del LED</t>
+          <t>Protección IP</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -926,12 +926,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>x_potencia</t>
+          <t>x_flujo_luminoso_lm</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Potencia</t>
+          <t>Flujo luminoso (lm)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -958,12 +958,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>x_diametro</t>
+          <t>x_tipo_casquillo</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Diámetro</t>
+          <t>Tipo casquillo</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -990,12 +990,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>x_descripcion</t>
+          <t>x_potencia_m</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>descripcion</t>
+          <t>Potencia/m</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1022,12 +1022,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>x_regulable</t>
+          <t>x_estabilidad_del_color</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Regulable</t>
+          <t>Estabilidad del color</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1054,12 +1054,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>x_casquillo</t>
+          <t>x_carga_nominal</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Casquillo</t>
+          <t>Carga nominal</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1086,12 +1086,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>x_modo_de_carga_corriente_de_carga</t>
+          <t>x_temperaturas_de_trabajo</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Modo de carga corriente de carga</t>
+          <t>Temperaturas de trabajo</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1118,12 +1118,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>x_anchura</t>
+          <t>x_longitud</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Anchura</t>
+          <t>Longitud</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1150,12 +1150,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>x_intensidad_luminosa_cd</t>
+          <t>x_factor_del_mantenimiento_de_los_lumenes_al_final_de_la_vida</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Intensidad luminosa, Cd</t>
+          <t>Factor del mantenimiento de los lúmenes al final de la vida nominal</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1182,12 +1182,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>x_grado_de_proteccion_ik</t>
+          <t>x_marca</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Grado de protección IK</t>
+          <t>Marca</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1214,12 +1214,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>x_flujo_luminoso_lm</t>
+          <t>x_sensor</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Flujo luminoso (lm)</t>
+          <t>Sensor</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1246,12 +1246,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>x_garantia</t>
+          <t>x_forma</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Garantía</t>
+          <t>Forma</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1278,12 +1278,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>x_puntos_de_corte</t>
+          <t>x_tiempo_de_retardo</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Puntos de corte</t>
+          <t>Tiempo de retardo</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1310,12 +1310,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>x_longitud_del_cable</t>
+          <t>x_lumenes_por_led</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Longitud del cable</t>
+          <t>Lúmenes por LED</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1342,12 +1342,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>x_fecha_de_lanzamiento</t>
+          <t>x_sku</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Fecha de lanzamiento</t>
+          <t>SKU</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1374,12 +1374,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>x_tamano_polo</t>
+          <t>x_lumenes_utiles_lm</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Tamaño Polo</t>
+          <t>Lúmenes útiles (lm)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1406,12 +1406,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>x_unidades_por_embalaje</t>
+          <t>x_tipo</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Unidades por embalaje</t>
+          <t>Tipo</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1438,12 +1438,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>x_frecuencia</t>
+          <t>x_vida_util</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Frecuencia</t>
+          <t>Vida útil</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1470,12 +1470,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>x_url</t>
+          <t>x_grado_de_proteccion_ip</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>Grado de protección IP</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1502,12 +1502,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>x_luz_ambiental</t>
+          <t>x_garantia</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Luz ambiental</t>
+          <t>Garantía</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1534,12 +1534,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>x_salida</t>
+          <t>x_tiempo_de_trabajo</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Salida</t>
+          <t>Tiempo de trabajo</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1566,12 +1566,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>x_tipo_led</t>
+          <t>x_tiempo_de_carga</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Tipo LED</t>
+          <t>Tiempo de carga</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1598,12 +1598,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>x_angulo_de_apertura</t>
+          <t>x_descripcion</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Ángulo de apertura</t>
+          <t>descripcion</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1630,12 +1630,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>x_rango_de_deteccion</t>
+          <t>x_tono_de_luz</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Rango de detección</t>
+          <t>Tono de luz</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1662,12 +1662,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>x_forma</t>
+          <t>x_cantidad_del_led</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Forma</t>
+          <t>Cantidad del LED</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1694,12 +1694,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>x_tipo</t>
+          <t>x_voltaje_de_entrada</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Tipo</t>
+          <t>Voltaje de entrada</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1726,12 +1726,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>x_altura</t>
+          <t>x_ciclos_de_encendido__apagado</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Altura</t>
+          <t>Ciclos de encendido / apagado</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1758,12 +1758,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>x_tipo_casquillo</t>
+          <t>x_luz_ambiental</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Tipo casquillo</t>
+          <t>Luz ambiental</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1790,12 +1790,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>x_estabilidad_del_color</t>
+          <t>x_rotacion</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Estabilidad del color</t>
+          <t>Rotación</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1822,12 +1822,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>x_modo_de_emergencia_corriente_de_descarga</t>
+          <t>x_tiempo_de_inicio_al_100_encendido</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Modo de emergencia corriente de descarga</t>
+          <t>Tiempo de inicio al 100% encendido</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1854,12 +1854,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>x_factor_de_potencia</t>
+          <t>x_frecuencia</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Factor de potencia</t>
+          <t>Frecuencia</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1886,12 +1886,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>x_potencia_m</t>
+          <t>x_temperatura_de_color</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Potencia/m</t>
+          <t>Temperatura de color</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1918,12 +1918,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>x_ciclos_de_encendido___apagado</t>
+          <t>x_cri</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Ciclos de encendido / apagado</t>
+          <t>CRI</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1950,12 +1950,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>x_voltaje_de_entrada</t>
+          <t>x_codigo_de_familia</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Voltaje de entrada</t>
+          <t>Código de familia</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1982,12 +1982,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>x_clase_de_eficiencia_energetica</t>
+          <t>x_ean</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Clase de eficiencia energética</t>
+          <t>EAN</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2014,12 +2014,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>x_tiempo_de_trabajo</t>
+          <t>x_clase_de_eficiencia_energetica</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Tiempo de trabajo</t>
+          <t>Clase de eficiencia energética</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2046,12 +2046,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>x_flujo_luminoso_m</t>
+          <t>x_unidades_por_embalaje</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Flujo luminoso/m</t>
+          <t>Unidades por embalaje</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2078,12 +2078,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>x_factor_del_mantenimiento_de_los_lumenes_al_final_de_la_vida</t>
+          <t>x_modo_de_carga_corriente_de_carga</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Factor del mantenimiento de los lúmenes al final de la vida nominal</t>
+          <t>Modo de carga corriente de carga</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2110,12 +2110,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>x_dimensiones_de_montaje</t>
+          <t>x_longitud_del_tubo</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Dimensiones de montaje</t>
+          <t>Longitud del tubo</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2142,12 +2142,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>x_rotacion</t>
+          <t>x_corriente</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Rotación</t>
+          <t>Corriente</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2174,12 +2174,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>x_temperatura_de_color</t>
+          <t>x_tension</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Temperatura de color</t>
+          <t>Tensión</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2206,12 +2206,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>x_tiempo_de_retardo</t>
+          <t>x_montar</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Tiempo de retardo</t>
+          <t>Montar</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2238,12 +2238,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>x_sensor</t>
+          <t>x_rango_de_deteccion</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Sensor</t>
+          <t>Rango de detección</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2270,12 +2270,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>x_tiempo_de_inicio_al_100_encendido</t>
+          <t>x_longitud_del_cable</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Tiempo de inicio al 100% encendido</t>
+          <t>Longitud del cable</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2302,12 +2302,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>x_color_del_cuerpo</t>
+          <t>x_angulo_de_apertura</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Color del cuerpo</t>
+          <t>Ángulo de apertura</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2334,12 +2334,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>x_tono_de_luz</t>
+          <t>x_dimensiones_de_montaje</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Tono de luz</t>
+          <t>Dimensiones de montaje</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2366,12 +2366,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>x_sku</t>
+          <t>x_modo_de_emergencia_corriente_de_descarga</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>SKU</t>
+          <t>Modo de emergencia corriente de descarga</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2430,12 +2430,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>x_marca</t>
+          <t>x_potencia</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Marca</t>
+          <t>Potencia</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2462,12 +2462,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>x_longitud</t>
+          <t>x_unidades_por_caja</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Longitud</t>
+          <t>Unidades por caja</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2494,12 +2494,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>x_carga_nominal</t>
+          <t>x_eficacia_luminosa_lm_w</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Carga nominal</t>
+          <t>Eficacia luminosa (lm/W)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2526,12 +2526,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>x_tension</t>
+          <t>x_color_del_cuerpo</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Tensión</t>
+          <t>Color del cuerpo</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2558,12 +2558,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>x_cri</t>
+          <t>x_tamano_polo</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>CRI</t>
+          <t>Tamaño Polo</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2590,12 +2590,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>x_ean</t>
+          <t>x_potencia_equivalente</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>EAN</t>
+          <t>Potencia equivalente</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2622,12 +2622,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>x_jacket_dia</t>
+          <t>x_intensidad_luminosa_cd</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Jacket Dia</t>
+          <t>Intensidad luminosa, Cd</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2654,12 +2654,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>x_montar</t>
+          <t>x_puntos_de_corte</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Montar</t>
+          <t>Puntos de corte</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2686,12 +2686,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>x_fpc_ancho_mm</t>
+          <t>x_casquillo</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>FPC Ancho MM</t>
+          <t>Casquillo</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2718,12 +2718,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>x_material</t>
+          <t>x_regulable</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Material</t>
+          <t>Regulable</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2750,12 +2750,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>x_dimensiones</t>
+          <t>x_material</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Dimensiones</t>
+          <t>Material</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2782,12 +2782,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>x_lumenes_por_led</t>
+          <t>x_deteccion_por_movimiento</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Lúmenes por LED</t>
+          <t>Detección por movimiento</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2814,12 +2814,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>x_grado_de_proteccion_ip</t>
+          <t>x_jacket_dia</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Grado de protección IP</t>
+          <t>Jacket Dia</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2846,12 +2846,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>x_codigo_de_familia</t>
+          <t>x_capacidad_de_la_bateria</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Código de familia</t>
+          <t>Capacidad de la batería</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2878,12 +2878,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>x_unidades_por_caja</t>
+          <t>x_dimensiones</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Unidades por caja</t>
+          <t>Dimensiones</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2910,12 +2910,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>x_potencia_equivalente</t>
+          <t>x_salida</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Potencia equivalente</t>
+          <t>Salida</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2938,6 +2938,38 @@
         <v>0</v>
       </c>
       <c r="H78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>x_altura</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Altura</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>product.template</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>texto</t>
+        </is>
+      </c>
+      <c r="E79" t="b">
+        <v>1</v>
+      </c>
+      <c r="F79" t="b">
+        <v>1</v>
+      </c>
+      <c r="G79" t="b">
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
